--- a/Document/Power Saving Mode/PSM_summary.xlsx
+++ b/Document/Power Saving Mode/PSM_summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.86.85\HL7800 Project\Document\Power Saving Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.86.85\HL7802 Project\Document\Power Saving Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -599,11 +599,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="95.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1092,12 +1092,12 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="84">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
